--- a/output/df_schedule_charging_station1.xlsx
+++ b/output/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>car models</t>
   </si>
@@ -28,253 +28,250 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
     <t>Others</t>
   </si>
   <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>Opel MOKKA</t>
+  </si>
+  <si>
+    <t>VW ID.4</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>KIA EV6</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>Renault TWINGO</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Polestar 2</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>VW E-UP</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>Hyundai IONIQ5 58kWh</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
     <t>Hyundai IONIQ5 77kWh</t>
   </si>
   <si>
-    <t>VW ID.3</t>
-  </si>
-  <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>VW E-UP</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 58kWh</t>
-  </si>
-  <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>Renault TWINGO</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 58kWh</t>
-  </si>
-  <si>
-    <t>VW ID.4</t>
-  </si>
-  <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 77kWh</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>Opel MOKKA</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:48</t>
-  </si>
-  <si>
-    <t>2022-02-17 06:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 09:17</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:34</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:24</t>
+    <t>2022-02-17 07:26</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:17</t>
   </si>
   <si>
     <t>2022-02-17 07:52</t>
   </si>
   <si>
-    <t>2022-02-17 07:01</t>
-  </si>
-  <si>
-    <t>2022-02-17 10:54</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:46</t>
-  </si>
-  <si>
-    <t>2022-02-17 10:53</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:00</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:43</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:47</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:44</t>
+    <t>2022-02-17 08:20</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:40</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:04</t>
+  </si>
+  <si>
+    <t>2022-02-17 10:02</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:54</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:10</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:52</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:05</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:13</t>
+  </si>
+  <si>
+    <t>2022-02-17 19:19</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:15</t>
   </si>
   <si>
     <t>2022-02-17 19:32</t>
   </si>
   <si>
-    <t>2022-02-17 16:14</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:43</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:50</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:23</t>
-  </si>
-  <si>
-    <t>2022-02-17 14:56</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:26</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:45</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:34</t>
-  </si>
-  <si>
-    <t>2022-02-18 05:59</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:18</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:05</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:19</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:20</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:22</t>
+    <t>2022-02-17 18:51</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:18</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:44</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:44</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:21</t>
+  </si>
+  <si>
+    <t>2022-02-18 06:49</t>
+  </si>
+  <si>
+    <t>2022-02-18 09:17</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:23</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:51</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:56</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:36</t>
+  </si>
+  <si>
+    <t>2022-02-18 14:09</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:32</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:57</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:59</t>
   </si>
   <si>
     <t>2022-02-18 11:02</t>
   </si>
   <si>
-    <t>2022-02-18 11:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:25</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:41</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:07</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:20</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:57</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:55</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:10</t>
+    <t>2022-02-18 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:24</t>
   </si>
   <si>
     <t>2022-02-18 18:33</t>
   </si>
   <si>
-    <t>2022-02-18 16:57</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:20</t>
-  </si>
-  <si>
-    <t>2022-02-19 06:53</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:33</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:34</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:43</t>
-  </si>
-  <si>
-    <t>2022-02-19 06:42</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:09</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:00</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:10</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:44</t>
-  </si>
-  <si>
-    <t>2022-02-19 13:10</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:54</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:36</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:46</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:26</t>
+    <t>2022-02-18 19:38</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:48</t>
+  </si>
+  <si>
+    <t>2022-02-18 19:34</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:24</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:50</t>
+  </si>
+  <si>
+    <t>2022-02-19 06:33</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:54</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:44</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:16</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:05</t>
+  </si>
+  <si>
+    <t>2022-02-19 05:26</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:08</t>
+  </si>
+  <si>
+    <t>2022-02-19 10:52</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:09</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:40</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:15</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:52</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:17</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:37</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:19</t>
   </si>
   <si>
     <t>2022-02-19 17:24</t>
   </si>
   <si>
-    <t>2022-02-19 18:31</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:21</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:13</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:28</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:28</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:08</t>
+    <t>2022-02-19 18:05</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:29</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:25</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:01</t>
   </si>
 </sst>
 </file>
@@ -657,13 +654,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -671,13 +668,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D3">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -685,55 +682,55 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D5">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D7">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -741,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -758,24 +755,24 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D9">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D10">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -789,172 +786,172 @@
         <v>0.15</v>
       </c>
       <c r="D11">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>0.3</v>
       </c>
       <c r="D17">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D19">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
         <v>0.9500000000000003</v>
@@ -962,111 +959,111 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="D25">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D27">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D28">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D31">
         <v>0.8500000000000002</v>
@@ -1074,13 +1071,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D32">
         <v>0.8000000000000002</v>
@@ -1088,44 +1085,44 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D33">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D34">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1133,24 +1130,24 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D36">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D37">
         <v>0.9000000000000002</v>
@@ -1158,13 +1155,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1172,237 +1169,237 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D39">
-        <v>0.9500000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D41">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>0.15</v>
       </c>
       <c r="D42">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D43">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>0.35</v>
       </c>
       <c r="D44">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D45">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D46">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D47">
-        <v>0.6</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D48">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D49">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D50">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D51">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>0.05</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D53">
-        <v>0.6</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D54">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D55">
         <v>0.9000000000000002</v>
@@ -1410,38 +1407,38 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D57">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58">
         <v>0.35</v>
@@ -1452,86 +1449,86 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D59">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D60">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D61">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D62">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D63">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D64">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_schedule_charging_station1.xlsx
+++ b/output/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>car models</t>
   </si>
@@ -28,7 +28,13 @@
     <t>final SoC</t>
   </si>
   <si>
-    <t>Hyundai KONA 64 kWh</t>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
   </si>
   <si>
     <t>Fiat 500 E</t>
@@ -37,241 +43,229 @@
     <t>Others</t>
   </si>
   <si>
+    <t>VW E-UP</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>Hyundai IONIQ5 58kWh</t>
+  </si>
+  <si>
     <t>Audi E-TRON</t>
   </si>
   <si>
-    <t>Opel MOKKA</t>
-  </si>
-  <si>
-    <t>VW ID.4</t>
+    <t>SKODA ENYAQ 77kWh</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
   </si>
   <si>
     <t>MINI Cooper SE</t>
   </si>
   <si>
-    <t>KIA EV6</t>
-  </si>
-  <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 39 kWh</t>
-  </si>
-  <si>
     <t>VW ID.3</t>
   </si>
   <si>
-    <t>Renault TWINGO</t>
-  </si>
-  <si>
     <t>Smart FORTWO</t>
   </si>
   <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>VW E-UP</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 58kWh</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 58kWh</t>
-  </si>
-  <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 77kWh</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:26</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:17</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:52</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:20</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:40</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:04</t>
-  </si>
-  <si>
-    <t>2022-02-17 10:02</t>
+    <t>2022-02-17 08:01</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:16</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:28</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:37</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:30</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:32</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:49</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:23</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:35</t>
   </si>
   <si>
     <t>2022-02-17 11:54</t>
   </si>
   <si>
-    <t>2022-02-17 11:10</t>
+    <t>2022-02-17 12:15</t>
   </si>
   <si>
     <t>2022-02-17 11:52</t>
   </si>
   <si>
-    <t>2022-02-17 11:05</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:13</t>
-  </si>
-  <si>
-    <t>2022-02-17 19:19</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:15</t>
-  </si>
-  <si>
-    <t>2022-02-17 19:32</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:51</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:00</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:18</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:44</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:44</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:21</t>
-  </si>
-  <si>
-    <t>2022-02-18 06:49</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:17</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:23</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:51</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:56</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:36</t>
-  </si>
-  <si>
-    <t>2022-02-18 14:09</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:32</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:57</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:59</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:02</t>
-  </si>
-  <si>
-    <t>2022-02-18 19:00</t>
+    <t>2022-02-17 11:20</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:40</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:56</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:20</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:46</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:38</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:36</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:54</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:52</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:06</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:29</t>
+  </si>
+  <si>
+    <t>2022-02-18 09:12</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:45</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:35</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:08</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:25</t>
+  </si>
+  <si>
+    <t>2022-02-18 09:52</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:28</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:04</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:26</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:17</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:53</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:59</t>
+  </si>
+  <si>
+    <t>2022-02-18 19:36</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:42</t>
   </si>
   <si>
     <t>2022-02-18 18:24</t>
   </si>
   <si>
-    <t>2022-02-18 18:33</t>
-  </si>
-  <si>
-    <t>2022-02-18 19:38</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:48</t>
-  </si>
-  <si>
-    <t>2022-02-18 19:34</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:24</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:50</t>
-  </si>
-  <si>
-    <t>2022-02-19 06:33</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:54</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:44</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:16</t>
-  </si>
-  <si>
-    <t>2022-02-19 09:05</t>
-  </si>
-  <si>
-    <t>2022-02-19 05:26</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:08</t>
-  </si>
-  <si>
-    <t>2022-02-19 10:52</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:09</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:40</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:15</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:52</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:17</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:37</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:19</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:24</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:05</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:29</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:25</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:01</t>
+    <t>2022-02-18 16:42</t>
+  </si>
+  <si>
+    <t>2022-02-19 06:42</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:08</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:23</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:53</t>
+  </si>
+  <si>
+    <t>2022-02-19 06:31</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:35</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:27</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:35</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:04</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:23</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:38</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:07</t>
+  </si>
+  <si>
+    <t>2022-02-19 20:40</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:48</t>
+  </si>
+  <si>
+    <t>2022-02-19 19:05</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:44</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:16</t>
+  </si>
+  <si>
+    <t>2022-02-19 20:13</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:34</t>
   </si>
 </sst>
 </file>
@@ -654,13 +648,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -668,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D3">
         <v>0.9500000000000003</v>
@@ -682,41 +676,41 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -724,13 +718,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -738,122 +732,122 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D15">
-        <v>0.9500000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D16">
         <v>0.9000000000000002</v>
@@ -861,7 +855,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -870,54 +864,54 @@
         <v>0.3</v>
       </c>
       <c r="D17">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D18">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D19">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -926,18 +920,18 @@
         <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
         <v>0.7500000000000001</v>
@@ -945,125 +939,125 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D23">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
       <c r="C25">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="D26">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
       <c r="C27">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D28">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D29">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
         <v>0.8500000000000002</v>
@@ -1071,13 +1065,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D32">
         <v>0.8000000000000002</v>
@@ -1085,111 +1079,111 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D33">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>0.2</v>
       </c>
       <c r="D34">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D37">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D39">
-        <v>0.6</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D40">
         <v>0.9000000000000002</v>
@@ -1197,212 +1191,212 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D41">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D42">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D44">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>0.35</v>
       </c>
       <c r="D45">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D46">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D47">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>0.25</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D49">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D50">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D51">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D52">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D53">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D54">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D55">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1410,94 +1404,94 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D56">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D57">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D58">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D59">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D60">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D61">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D62">
         <v>0.9500000000000003</v>
@@ -1505,30 +1499,30 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D63">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D64">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_schedule_charging_station1.xlsx
+++ b/output/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>car models</t>
   </si>
@@ -28,244 +28,238 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
+    <t>VW ID.4</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 77kWh</t>
+  </si>
+  <si>
     <t>Dacia SPRING</t>
   </si>
   <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>VW E-UP</t>
-  </si>
-  <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 58kWh</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 58kWh</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 77kWh</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 39 kWh</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
-  </si>
-  <si>
     <t>Smart FORTWO</t>
   </si>
   <si>
-    <t>2022-02-17 08:01</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:16</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:28</t>
+    <t>2022-02-17 08:34</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:03</t>
   </si>
   <si>
     <t>2022-02-17 06:37</t>
   </si>
   <si>
-    <t>2022-02-17 06:30</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:32</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:49</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:23</t>
+    <t>2022-02-17 08:13</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:09</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:42</t>
   </si>
   <si>
     <t>2022-02-17 11:35</t>
   </si>
   <si>
-    <t>2022-02-17 11:54</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:15</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:52</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:20</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:40</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:56</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:20</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:46</t>
+    <t>2022-02-17 12:26</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:47</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:09</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:37</t>
+  </si>
+  <si>
+    <t>2022-02-17 20:48</t>
+  </si>
+  <si>
+    <t>2022-02-17 19:18</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:30</t>
+  </si>
+  <si>
+    <t>2022-02-17 19:03</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:13</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:36</t>
   </si>
   <si>
     <t>2022-02-17 17:38</t>
   </si>
   <si>
-    <t>2022-02-17 18:36</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:54</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:52</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:06</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:29</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:12</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:45</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:35</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:08</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:25</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:52</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:28</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:04</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:26</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:17</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:53</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:59</t>
-  </si>
-  <si>
-    <t>2022-02-18 19:36</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:24</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:42</t>
-  </si>
-  <si>
-    <t>2022-02-19 06:42</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:00</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:08</t>
+    <t>2022-02-18 07:36</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:42</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:30</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:31</t>
+  </si>
+  <si>
+    <t>2022-02-18 09:19</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:39</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:09</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:42</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:04</t>
+  </si>
+  <si>
+    <t>2022-02-18 10:12</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:47</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:32</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:23</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:45</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:51</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:04</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:20</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:36</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:30</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:05</t>
   </si>
   <si>
     <t>2022-02-19 08:23</t>
   </si>
   <si>
-    <t>2022-02-19 08:53</t>
-  </si>
-  <si>
-    <t>2022-02-19 06:31</t>
+    <t>2022-02-19 07:07</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:52</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:31</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:28</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:59</t>
+  </si>
+  <si>
+    <t>2022-02-19 05:45</t>
   </si>
   <si>
     <t>2022-02-19 11:35</t>
   </si>
   <si>
-    <t>2022-02-19 12:27</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:35</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:04</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:23</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:38</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:07</t>
-  </si>
-  <si>
-    <t>2022-02-19 20:40</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:48</t>
-  </si>
-  <si>
-    <t>2022-02-19 19:05</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:44</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:16</t>
-  </si>
-  <si>
-    <t>2022-02-19 20:13</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:34</t>
+    <t>2022-02-19 12:07</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:48</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:05</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:47</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:19</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:19</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:06</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:40</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:45</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:23</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:46</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:24</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:00</t>
   </si>
 </sst>
 </file>
@@ -648,13 +642,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -662,13 +656,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0.15</v>
       </c>
       <c r="D3">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -676,80 +670,80 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
         <v>0.9500000000000003</v>
@@ -757,58 +751,58 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>0.25</v>
       </c>
       <c r="D11">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D12">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -816,55 +810,55 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0.25</v>
       </c>
       <c r="D14">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D17">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -872,66 +866,66 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D19">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
         <v>0.7500000000000001</v>
@@ -939,97 +933,97 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>0.15</v>
       </c>
       <c r="D23">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D26">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D28">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D29">
         <v>0.8000000000000002</v>
@@ -1037,16 +1031,16 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1054,318 +1048,318 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31">
-        <v>0.2</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D31">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C32">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D32">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D33">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D34">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D36">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D37">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D38">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="D39">
-        <v>0.9500000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D40">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D41">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D43">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="D44">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>0.35</v>
       </c>
       <c r="D45">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C46">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D47">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D48">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D49">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D51">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52">
-        <v>0.35</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D53">
         <v>0.9000000000000002</v>
@@ -1373,153 +1367,153 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D54">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <v>0.05</v>
       </c>
       <c r="D55">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D56">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D57">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D58">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D59">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D60">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D61">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D62">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D63">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D64">
         <v>0.9000000000000002</v>

--- a/output/df_schedule_charging_station1.xlsx
+++ b/output/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
   <si>
     <t>car models</t>
   </si>
@@ -28,238 +28,373 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>VW E-UP</t>
+  </si>
+  <si>
     <t>Fiat 500 E</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Opel MOKKA</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>VW ID.4</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Polestar 2</t>
   </si>
   <si>
     <t>VW ID.3</t>
   </si>
   <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
-    <t>VW ID.4</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
+    <t>KIA EV6</t>
   </si>
   <si>
     <t>SKODA ENYAQ 77kWh</t>
   </si>
   <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:34</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:03</t>
-  </si>
-  <si>
-    <t>2022-02-17 06:37</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:13</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:09</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:00</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:42</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:35</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:26</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:47</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:09</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:37</t>
-  </si>
-  <si>
-    <t>2022-02-17 20:48</t>
-  </si>
-  <si>
-    <t>2022-02-17 19:18</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:30</t>
-  </si>
-  <si>
-    <t>2022-02-17 19:03</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:13</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:36</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:38</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:36</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:30</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:31</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:19</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:39</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:09</t>
-  </si>
-  <si>
-    <t>2022-02-18 13:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 13:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:04</t>
-  </si>
-  <si>
-    <t>2022-02-18 10:12</t>
-  </si>
-  <si>
-    <t>2022-02-18 13:47</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:32</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:23</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:45</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:51</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:04</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:20</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:36</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:30</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:05</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:23</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:07</t>
-  </si>
-  <si>
-    <t>2022-02-19 09:52</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:31</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:28</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:59</t>
-  </si>
-  <si>
-    <t>2022-02-19 05:45</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:35</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:07</t>
-  </si>
-  <si>
-    <t>2022-02-19 13:48</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:05</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:47</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:19</t>
-  </si>
-  <si>
-    <t>2022-02-19 13:19</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:06</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:40</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:45</t>
+    <t>2022-02-17 07:52</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:53</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:35</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:31</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:14</t>
+  </si>
+  <si>
+    <t>2022-02-17 09:18</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 10:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:28</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:17</t>
+  </si>
+  <si>
+    <t>2022-02-17 14:07</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:53</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:05</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:51</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:50</t>
+  </si>
+  <si>
+    <t>2022-02-17 19:46</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:57</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:55</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:13</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:19</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:49</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:05</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:56</t>
+  </si>
+  <si>
+    <t>2022-02-18 09:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:45</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:42</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:06</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:15</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:28</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:51</t>
+  </si>
+  <si>
+    <t>2022-02-18 10:22</t>
+  </si>
+  <si>
+    <t>2022-02-18 10:50</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:11</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:16</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:04</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:43</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:35</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:53</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:07</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:39</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:34</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:04</t>
+  </si>
+  <si>
+    <t>2022-02-19 06:20</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:08</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:54</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:40</t>
+  </si>
+  <si>
+    <t>2022-02-19 10:17</t>
+  </si>
+  <si>
+    <t>2022-02-19 14:28</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:20</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:53</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:01</t>
+  </si>
+  <si>
+    <t>2022-02-19 10:46</t>
   </si>
   <si>
     <t>2022-02-19 18:23</t>
   </si>
   <si>
-    <t>2022-02-19 18:46</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:24</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:00</t>
+    <t>2022-02-19 16:41</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:34</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:26</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:56</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:17</t>
+  </si>
+  <si>
+    <t>2022-02-20 06:48</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:38</t>
+  </si>
+  <si>
+    <t>2022-02-20 08:09</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:44</t>
+  </si>
+  <si>
+    <t>2022-02-20 08:32</t>
+  </si>
+  <si>
+    <t>2022-02-20 08:18</t>
+  </si>
+  <si>
+    <t>2022-02-20 11:33</t>
+  </si>
+  <si>
+    <t>2022-02-20 13:19</t>
+  </si>
+  <si>
+    <t>2022-02-20 11:55</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:04</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:48</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:10</t>
+  </si>
+  <si>
+    <t>2022-02-20 16:39</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:24</t>
+  </si>
+  <si>
+    <t>2022-02-20 16:49</t>
+  </si>
+  <si>
+    <t>2022-02-20 16:20</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:48</t>
+  </si>
+  <si>
+    <t>2022-02-20 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 19:06</t>
+  </si>
+  <si>
+    <t>2022-02-21 06:10</t>
+  </si>
+  <si>
+    <t>2022-02-21 06:31</t>
+  </si>
+  <si>
+    <t>2022-02-21 09:03</t>
+  </si>
+  <si>
+    <t>2022-02-21 07:28</t>
+  </si>
+  <si>
+    <t>2022-02-21 07:30</t>
+  </si>
+  <si>
+    <t>2022-02-21 07:44</t>
+  </si>
+  <si>
+    <t>2022-02-21 08:14</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:17</t>
+  </si>
+  <si>
+    <t>2022-02-21 10:41</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:10</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:09</t>
+  </si>
+  <si>
+    <t>2022-02-21 11:16</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:42</t>
+  </si>
+  <si>
+    <t>2022-02-21 10:52</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:58</t>
+  </si>
+  <si>
+    <t>2022-02-21 17:01</t>
+  </si>
+  <si>
+    <t>2022-02-21 17:31</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:02</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:55</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:46</t>
+  </si>
+  <si>
+    <t>2022-02-21 16:53</t>
   </si>
 </sst>
 </file>
@@ -617,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -656,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -670,10 +805,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
         <v>0.8500000000000002</v>
@@ -684,27 +819,27 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.9500000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -712,97 +847,97 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D8">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.9500000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>0.9000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -810,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>0.25</v>
@@ -821,30 +956,30 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>0.3</v>
       </c>
       <c r="D16">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -852,55 +987,55 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D17">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D19">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D20">
-        <v>0.8500000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -908,69 +1043,69 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>0.25</v>
       </c>
       <c r="D21">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>0.3</v>
       </c>
       <c r="D22">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D24">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -978,35 +1113,35 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>0.25</v>
@@ -1017,72 +1152,72 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D29">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D30">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>0.4999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D31">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D32">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>0.25</v>
       </c>
       <c r="D33">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1090,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D34">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1104,10 +1239,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
         <v>0.65</v>
@@ -1115,38 +1250,38 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D37">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>0.15</v>
@@ -1160,49 +1295,49 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C39">
         <v>0.45</v>
       </c>
       <c r="D39">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>0.1</v>
@@ -1216,38 +1351,38 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C44">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C45">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1255,69 +1390,69 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C46">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D46">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="D47">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C48">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D48">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C49">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D49">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
       </c>
       <c r="C50">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D50">
         <v>0.8500000000000002</v>
@@ -1325,16 +1460,16 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C51">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D51">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1342,27 +1477,27 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C52">
-        <v>0.4999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D52">
-        <v>0.6</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>0.3</v>
       </c>
       <c r="D53">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1370,41 +1505,41 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D54">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C55">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D55">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C56">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="D56">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1412,10 +1547,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C57">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D57">
         <v>0.9500000000000003</v>
@@ -1423,58 +1558,58 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C58">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C59">
-        <v>0.05</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D59">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C60">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D60">
-        <v>0.8500000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C61">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D61">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1482,13 +1617,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C62">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D62">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1496,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D63">
         <v>0.8500000000000002</v>
@@ -1507,16 +1642,604 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64">
+        <v>0.25</v>
+      </c>
+      <c r="D64">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65">
+        <v>0.2</v>
+      </c>
+      <c r="D65">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66">
+        <v>0.1</v>
+      </c>
+      <c r="D66">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67">
+        <v>0.25</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>0.15</v>
+      </c>
+      <c r="D68">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69">
+        <v>0.3</v>
+      </c>
+      <c r="D69">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64">
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70">
+        <v>0.4</v>
+      </c>
+      <c r="D70">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71">
+        <v>0.4</v>
+      </c>
+      <c r="D71">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72">
+        <v>0.25</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73">
+        <v>0.1</v>
+      </c>
+      <c r="D73">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74">
+        <v>0.25</v>
+      </c>
+      <c r="D74">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75">
+        <v>0.25</v>
+      </c>
+      <c r="D75">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76">
+        <v>0.15</v>
+      </c>
+      <c r="D76">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77">
+        <v>0.35</v>
+      </c>
+      <c r="D77">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78">
+        <v>0.3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79">
+        <v>0.3</v>
+      </c>
+      <c r="D79">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="D80">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81">
+        <v>0.35</v>
+      </c>
+      <c r="D81">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82">
+        <v>0.3</v>
+      </c>
+      <c r="D82">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83">
         <v>0.2</v>
       </c>
-      <c r="D64">
+      <c r="D83">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84">
+        <v>0.25</v>
+      </c>
+      <c r="D84">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <v>0.1</v>
+      </c>
+      <c r="D85">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86">
+        <v>0.15</v>
+      </c>
+      <c r="D86">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87">
+        <v>0.2</v>
+      </c>
+      <c r="D87">
         <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88">
+        <v>0.2</v>
+      </c>
+      <c r="D88">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89">
+        <v>0.35</v>
+      </c>
+      <c r="D89">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90">
+        <v>0.1</v>
+      </c>
+      <c r="D90">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91">
+        <v>0.25</v>
+      </c>
+      <c r="D91">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92">
+        <v>0.25</v>
+      </c>
+      <c r="D92">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93">
+        <v>0.3</v>
+      </c>
+      <c r="D93">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94">
+        <v>0.2</v>
+      </c>
+      <c r="D94">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95">
+        <v>0.45</v>
+      </c>
+      <c r="D95">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96">
+        <v>0.35</v>
+      </c>
+      <c r="D96">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97">
+        <v>0.4</v>
+      </c>
+      <c r="D97">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>0.4</v>
+      </c>
+      <c r="D98">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99">
+        <v>0.3</v>
+      </c>
+      <c r="D99">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100">
+        <v>0.05</v>
+      </c>
+      <c r="D100">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101">
+        <v>0.3</v>
+      </c>
+      <c r="D101">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102">
+        <v>0.3</v>
+      </c>
+      <c r="D102">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103">
+        <v>0.4</v>
+      </c>
+      <c r="D103">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104">
+        <v>0.2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105">
+        <v>0.15</v>
+      </c>
+      <c r="D105">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106">
+        <v>0.1</v>
+      </c>
+      <c r="D106">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_schedule_charging_station1.xlsx
+++ b/output/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>car models</t>
   </si>
@@ -28,373 +28,379 @@
     <t>final SoC</t>
   </si>
   <si>
-    <t>Audi E-TRON</t>
+    <t>Audi Q4</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>SKODA ENYAQ 58kWh</t>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
+  </si>
+  <si>
+    <t>VW ID.4</t>
+  </si>
+  <si>
+    <t>Renault TWINGO</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>KIA EV6</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Hyundai IONIQ5 58kWh</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
   </si>
   <si>
     <t>VW E-UP</t>
   </si>
   <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 39 kWh</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
+    <t>Polestar 2</t>
+  </si>
+  <si>
+    <t>Hyundai IONIQ5 77kWh</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
   </si>
   <si>
     <t>Opel MOKKA</t>
   </si>
   <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
+    <t>VW ID.3</t>
   </si>
   <si>
     <t>VW ID.5</t>
   </si>
   <si>
-    <t>VW ID.4</t>
-  </si>
-  <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
-  </si>
-  <si>
-    <t>KIA EV6</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 77kWh</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:52</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:53</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:35</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:31</t>
-  </si>
-  <si>
-    <t>2022-02-17 06:14</t>
-  </si>
-  <si>
-    <t>2022-02-17 09:18</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 10:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:28</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:17</t>
-  </si>
-  <si>
-    <t>2022-02-17 14:07</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:53</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:05</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:51</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:50</t>
-  </si>
-  <si>
-    <t>2022-02-17 19:46</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:57</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:55</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:13</t>
-  </si>
-  <si>
-    <t>2022-02-17 18:19</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:49</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:05</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:56</t>
-  </si>
-  <si>
-    <t>2022-02-18 09:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:45</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:06</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:15</t>
-  </si>
-  <si>
-    <t>2022-02-18 13:28</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:51</t>
-  </si>
-  <si>
-    <t>2022-02-18 10:22</t>
-  </si>
-  <si>
-    <t>2022-02-18 10:50</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:11</t>
+    <t>2022-02-17 08:07</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:34</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:38</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:12</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:08</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:38</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:51</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:01</t>
+  </si>
+  <si>
+    <t>2022-02-17 09:17</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:04</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:11</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:42</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:50</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:32</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:05</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:43</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:46</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:10</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:30</t>
+  </si>
+  <si>
+    <t>2022-02-17 19:24</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:18</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:10</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:27</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:48</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:55</t>
+  </si>
+  <si>
+    <t>2022-02-18 06:39</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:31</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:10</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:33</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:29</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:32</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:06</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:59</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:22</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:14</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:59</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:11</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:34</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:50</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:31</t>
   </si>
   <si>
     <t>2022-02-18 18:16</t>
   </si>
   <si>
-    <t>2022-02-18 18:04</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:43</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:35</t>
-  </si>
-  <si>
-    <t>2022-02-18 17:53</t>
-  </si>
-  <si>
-    <t>2022-02-18 18:07</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:39</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:34</t>
-  </si>
-  <si>
-    <t>2022-02-19 09:04</t>
-  </si>
-  <si>
-    <t>2022-02-19 06:20</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:08</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:54</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:40</t>
-  </si>
-  <si>
-    <t>2022-02-19 10:17</t>
-  </si>
-  <si>
-    <t>2022-02-19 14:28</t>
-  </si>
-  <si>
-    <t>2022-02-19 13:20</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:53</t>
-  </si>
-  <si>
-    <t>2022-02-19 13:01</t>
-  </si>
-  <si>
-    <t>2022-02-19 10:46</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:23</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:41</t>
+    <t>2022-02-19 07:03</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:27</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:05</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:07</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:35</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:31</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:39</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:57</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:04</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:28</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:15</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:14</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:23</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:48</t>
   </si>
   <si>
     <t>2022-02-19 17:34</t>
   </si>
   <si>
-    <t>2022-02-19 18:26</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:56</t>
-  </si>
-  <si>
-    <t>2022-02-19 18:17</t>
-  </si>
-  <si>
-    <t>2022-02-20 06:48</t>
-  </si>
-  <si>
-    <t>2022-02-20 07:38</t>
-  </si>
-  <si>
-    <t>2022-02-20 08:09</t>
-  </si>
-  <si>
-    <t>2022-02-20 07:44</t>
-  </si>
-  <si>
-    <t>2022-02-20 08:32</t>
-  </si>
-  <si>
-    <t>2022-02-20 08:18</t>
-  </si>
-  <si>
-    <t>2022-02-20 11:33</t>
+    <t>2022-02-19 17:31</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:03</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:15</t>
+  </si>
+  <si>
+    <t>2022-02-19 20:24</t>
+  </si>
+  <si>
+    <t>2022-02-19 19:12</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:53</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:39</t>
+  </si>
+  <si>
+    <t>2022-02-20 06:41</t>
+  </si>
+  <si>
+    <t>2022-02-20 10:29</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:10</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:01</t>
+  </si>
+  <si>
+    <t>2022-02-20 06:47</t>
+  </si>
+  <si>
+    <t>2022-02-20 11:57</t>
   </si>
   <si>
     <t>2022-02-20 13:19</t>
   </si>
   <si>
-    <t>2022-02-20 11:55</t>
-  </si>
-  <si>
-    <t>2022-02-20 12:04</t>
-  </si>
-  <si>
-    <t>2022-02-20 12:00</t>
-  </si>
-  <si>
-    <t>2022-02-20 12:48</t>
-  </si>
-  <si>
-    <t>2022-02-20 12:10</t>
-  </si>
-  <si>
-    <t>2022-02-20 16:39</t>
-  </si>
-  <si>
-    <t>2022-02-20 18:24</t>
-  </si>
-  <si>
-    <t>2022-02-20 16:49</t>
-  </si>
-  <si>
-    <t>2022-02-20 16:20</t>
-  </si>
-  <si>
-    <t>2022-02-20 18:48</t>
-  </si>
-  <si>
-    <t>2022-02-20 20:00</t>
-  </si>
-  <si>
-    <t>2022-02-20 19:06</t>
-  </si>
-  <si>
-    <t>2022-02-21 06:10</t>
-  </si>
-  <si>
-    <t>2022-02-21 06:31</t>
-  </si>
-  <si>
-    <t>2022-02-21 09:03</t>
-  </si>
-  <si>
-    <t>2022-02-21 07:28</t>
-  </si>
-  <si>
-    <t>2022-02-21 07:30</t>
-  </si>
-  <si>
-    <t>2022-02-21 07:44</t>
-  </si>
-  <si>
-    <t>2022-02-21 08:14</t>
-  </si>
-  <si>
-    <t>2022-02-21 12:17</t>
-  </si>
-  <si>
-    <t>2022-02-21 10:41</t>
-  </si>
-  <si>
-    <t>2022-02-21 12:10</t>
-  </si>
-  <si>
-    <t>2022-02-21 12:09</t>
-  </si>
-  <si>
-    <t>2022-02-21 11:16</t>
-  </si>
-  <si>
-    <t>2022-02-21 12:42</t>
-  </si>
-  <si>
-    <t>2022-02-21 10:52</t>
-  </si>
-  <si>
-    <t>2022-02-21 18:58</t>
-  </si>
-  <si>
-    <t>2022-02-21 17:01</t>
-  </si>
-  <si>
-    <t>2022-02-21 17:31</t>
-  </si>
-  <si>
-    <t>2022-02-21 18:02</t>
-  </si>
-  <si>
-    <t>2022-02-21 18:55</t>
-  </si>
-  <si>
-    <t>2022-02-21 18:46</t>
-  </si>
-  <si>
-    <t>2022-02-21 16:53</t>
+    <t>2022-02-20 12:47</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:07</t>
+  </si>
+  <si>
+    <t>2022-02-20 11:19</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:29</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:12</t>
+  </si>
+  <si>
+    <t>2022-02-20 17:13</t>
+  </si>
+  <si>
+    <t>2022-02-20 17:54</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:20</t>
+  </si>
+  <si>
+    <t>2022-02-20 19:03</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:52</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:06</t>
+  </si>
+  <si>
+    <t>2022-02-20 17:35</t>
+  </si>
+  <si>
+    <t>2022-02-21 08:48</t>
+  </si>
+  <si>
+    <t>2022-02-21 06:59</t>
+  </si>
+  <si>
+    <t>2022-02-21 08:57</t>
+  </si>
+  <si>
+    <t>2022-02-21 06:27</t>
+  </si>
+  <si>
+    <t>2022-02-21 06:53</t>
+  </si>
+  <si>
+    <t>2022-02-21 08:29</t>
+  </si>
+  <si>
+    <t>2022-02-21 08:28</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:27</t>
+  </si>
+  <si>
+    <t>2022-02-21 13:26</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:13</t>
+  </si>
+  <si>
+    <t>2022-02-21 14:08</t>
+  </si>
+  <si>
+    <t>2022-02-21 11:14</t>
+  </si>
+  <si>
+    <t>2022-02-21 12:03</t>
+  </si>
+  <si>
+    <t>2022-02-21 14:24</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:40</t>
+  </si>
+  <si>
+    <t>2022-02-21 19:05</t>
+  </si>
+  <si>
+    <t>2022-02-21 17:59</t>
+  </si>
+  <si>
+    <t>2022-02-21 15:32</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:13</t>
+  </si>
+  <si>
+    <t>2022-02-21 18:12</t>
+  </si>
+  <si>
+    <t>2022-02-21 17:21</t>
   </si>
 </sst>
 </file>
@@ -777,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D2">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -791,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -805,13 +811,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -819,13 +825,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -833,80 +839,80 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>0.35</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D11">
         <v>0.7000000000000001</v>
@@ -914,72 +920,72 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0.3</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D13">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D15">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D16">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -987,27 +993,27 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D18">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1015,41 +1021,41 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D20">
-        <v>0.6</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D21">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1057,97 +1063,97 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D23">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>0.4999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D24">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D25">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D26">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D28">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1155,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
         <v>0.8500000000000002</v>
@@ -1166,13 +1172,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
       <c r="C30">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D30">
         <v>0.8000000000000002</v>
@@ -1180,55 +1186,55 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D31">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="C32">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D32">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D33">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D34">
         <v>0.8500000000000002</v>
@@ -1236,58 +1242,58 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D36">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D37">
-        <v>0.9000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D38">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1298,38 +1304,38 @@
         <v>62</v>
       </c>
       <c r="C39">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D39">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
       <c r="C40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D40">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D41">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1340,35 +1346,35 @@
         <v>65</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
       </c>
       <c r="C43">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D43">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
       <c r="C44">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D44">
         <v>0.9500000000000003</v>
@@ -1376,13 +1382,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
       <c r="C45">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1390,55 +1396,55 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
       </c>
       <c r="C46">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D46">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
       <c r="C47">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="D47">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D48">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C49">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D49">
         <v>0.8500000000000002</v>
@@ -1446,133 +1452,133 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>0.25</v>
       </c>
       <c r="D50">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
       <c r="C51">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>74</v>
       </c>
       <c r="C52">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D52">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
       </c>
       <c r="C53">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D53">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
       </c>
       <c r="C54">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D54">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
       </c>
       <c r="C55">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D55">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
       </c>
       <c r="C56">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D56">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
       </c>
       <c r="C57">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D57">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>80</v>
       </c>
       <c r="C58">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D58">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>81</v>
@@ -1581,49 +1587,49 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="D59">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
       </c>
       <c r="C60">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D60">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
       </c>
       <c r="C61">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D61">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
         <v>84</v>
       </c>
       <c r="C62">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D62">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1634,38 +1640,38 @@
         <v>85</v>
       </c>
       <c r="C63">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D63">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D64">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D65">
-        <v>0.8500000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1673,220 +1679,220 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D66">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68">
         <v>0.15</v>
       </c>
       <c r="D68">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69">
         <v>0.3</v>
       </c>
       <c r="D69">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D71">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C73">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D73">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D74">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C75">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D75">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D76">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D77">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>0.3</v>
       </c>
       <c r="D79">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C80">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D80">
-        <v>0.9000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C81">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D81">
         <v>0.8500000000000002</v>
@@ -1894,58 +1900,58 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C82">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D82">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C83">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D83">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C84">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D84">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C85">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D85">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1953,13 +1959,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C86">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D86">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1967,13 +1973,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C87">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D87">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1981,13 +1987,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D88">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1995,125 +2001,125 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C89">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D89">
-        <v>0.6</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C90">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D90">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C91">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D91">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C92">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D92">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C93">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D93">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C94">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D94">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C95">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="D95">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C96">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D96">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C97">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D97">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2121,27 +2127,27 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C98">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D98">
-        <v>0.6</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C99">
         <v>0.3</v>
       </c>
       <c r="D99">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2149,24 +2155,24 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C100">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D100">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C101">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D101">
         <v>0.8500000000000002</v>
@@ -2174,72 +2180,72 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C102">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D102">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C103">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D103">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C104">
         <v>0.2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C105">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D105">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C106">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D106">
-        <v>0.6</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
   </sheetData>
